--- a/src/main/resources/excel/user.xlsx
+++ b/src/main/resources/excel/user.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TGS\TrainingWSOnee\EcomBooking\src\main\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="4260" windowWidth="16530" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="3930"/>
   </bookViews>
   <sheets>
-    <sheet name="User Details" r:id="rId1" sheetId="1"/>
+    <sheet name="User Details" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>firstName</t>
   </si>
@@ -40,55 +36,12 @@
   </si>
   <si>
     <t>user101</t>
-  </si>
-  <si>
-    <t>user103</t>
-  </si>
-  <si>
-    <t>prasad</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>perugu</t>
-  </si>
-  <si>
-    <t>user104</t>
-  </si>
-  <si>
-    <t>vinod</t>
-  </si>
-  <si>
-    <t>vin</t>
-  </si>
-  <si>
-    <t>user105</t>
-  </si>
-  <si>
-    <t>mano</t>
-  </si>
-  <si>
-    <t>manu</t>
-  </si>
-  <si>
-    <t>user106</t>
-  </si>
-  <si>
-    <t>pandu</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>pans</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,13 +69,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -148,10 +101,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -170,10 +123,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -208,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -243,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -337,21 +290,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -368,7 +321,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -420,18 +373,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,92 +417,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/user.xlsx
+++ b/src/main/resources/excel/user.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="3930"/>
+    <workbookView windowHeight="3930" windowWidth="16260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="User Details" sheetId="1" r:id="rId1"/>
+    <sheet name="User Details" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>firstName</t>
   </si>
@@ -36,12 +36,22 @@
   </si>
   <si>
     <t>user101</t>
+  </si>
+  <si>
+    <t>user112</t>
+  </si>
+  <si>
+    <t>giri</t>
+  </si>
+  <si>
+    <t>passwor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,13 +79,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -101,10 +111,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="1" type="wholeTable"/>
+      <tableStyleElement dxfId="0" type="headerRow"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -123,10 +133,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -161,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -196,7 +206,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -290,21 +300,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -321,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -373,14 +383,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
@@ -425,8 +435,78 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/user.xlsx
+++ b/src/main/resources/excel/user.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="10">
   <si>
     <t>firstName</t>
   </si>
@@ -505,6 +505,300 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
